--- a/data/outputs/OR_elsevier/47.xlsx
+++ b/data/outputs/OR_elsevier/47.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS117"/>
+  <dimension ref="A1:BU117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +939,12 @@
           <t>2-s2.0-84925535305</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1154,6 +1170,12 @@
           <t>2-s2.0-84920709991</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1368,6 +1390,12 @@
         <is>
           <t>2-s2.0-84920708044</t>
         </is>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -1576,6 +1604,12 @@
           <t>2-s2.0-84947036432</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1799,6 +1833,12 @@
           <t>2-s2.0-84920708275</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2010,6 +2050,12 @@
           <t>2-s2.0-84947033946</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2225,6 +2271,12 @@
           <t>2-s2.0-84922338441</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2440,6 +2492,12 @@
           <t>2-s2.0-84920710856</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2663,6 +2721,12 @@
           <t>2-s2.0-84922337729</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2880,6 +2944,12 @@
           <t>2-s2.0-84930206505</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3101,6 +3171,12 @@
           <t>2-s2.0-84941939443</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3314,6 +3390,12 @@
           <t>2-s2.0-84938237344</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3529,6 +3611,12 @@
           <t>2-s2.0-84947022173</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3746,6 +3834,12 @@
           <t>2-s2.0-84941933933</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3962,6 +4056,12 @@
         <is>
           <t>2-s2.0-84941916806</t>
         </is>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -4172,6 +4272,12 @@
           <t>2-s2.0-84938288343</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4396,6 +4502,12 @@
         <is>
           <t>2-s2.0-84929841712</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -4606,6 +4718,12 @@
           <t>2-s2.0-84929837498</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4825,6 +4943,12 @@
           <t>2-s2.0-85027953889</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5048,6 +5172,12 @@
           <t>2-s2.0-84924223165</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5259,6 +5389,12 @@
           <t>2-s2.0-84947040500</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5472,6 +5608,12 @@
           <t>2-s2.0-84941933995</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5693,6 +5835,12 @@
           <t>2-s2.0-84938285342</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5904,6 +6052,12 @@
           <t>2-s2.0-84924984736</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6114,6 +6268,12 @@
         <is>
           <t>2-s2.0-84924223026</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -6322,6 +6482,12 @@
           <t>2-s2.0-84924220881</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6529,6 +6695,12 @@
           <t>2-s2.0-84927963010</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6744,6 +6916,12 @@
           <t>2-s2.0-84947017237</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6959,6 +7137,12 @@
           <t>2-s2.0-84922337617</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7184,6 +7368,12 @@
           <t>2-s2.0-84941939714</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7397,6 +7587,12 @@
           <t>2-s2.0-84929836944</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7616,6 +7812,12 @@
           <t>2-s2.0-84922338132</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7834,6 +8036,12 @@
         <is>
           <t>2-s2.0-84920707977</t>
         </is>
+      </c>
+      <c r="BT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -8044,6 +8252,12 @@
           <t>2-s2.0-84941943952</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8261,6 +8475,12 @@
           <t>2-s2.0-84941942764</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8478,6 +8698,12 @@
           <t>2-s2.0-84938287858</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8699,6 +8925,12 @@
           <t>2-s2.0-84938286055</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8916,6 +9148,12 @@
           <t>2-s2.0-84938292375</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9129,6 +9367,12 @@
           <t>2-s2.0-84929841714</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9344,6 +9588,12 @@
           <t>2-s2.0-84925290505</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9555,6 +9805,12 @@
           <t>2-s2.0-84925536921</t>
         </is>
       </c>
+      <c r="BT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9765,6 +10021,12 @@
         <is>
           <t>2-s2.0-84922338055</t>
         </is>
+      </c>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -9973,6 +10235,12 @@
           <t>2-s2.0-84922337860</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10196,6 +10464,12 @@
           <t>2-s2.0-84924525300</t>
         </is>
       </c>
+      <c r="BT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10415,6 +10689,12 @@
           <t>2-s2.0-84947029036</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10625,6 +10905,12 @@
         <is>
           <t>2-s2.0-84947020452</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -10835,6 +11121,12 @@
           <t>2-s2.0-84941944395</t>
         </is>
       </c>
+      <c r="BT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11060,6 +11352,12 @@
           <t>2-s2.0-84938286816</t>
         </is>
       </c>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11281,6 +11579,12 @@
           <t>2-s2.0-84929835043</t>
         </is>
       </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11494,6 +11798,12 @@
           <t>2-s2.0-84930193692</t>
         </is>
       </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11711,6 +12021,12 @@
           <t>2-s2.0-84929835622</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11926,6 +12242,12 @@
           <t>2-s2.0-85027933589</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12149,6 +12471,12 @@
           <t>2-s2.0-84925292029</t>
         </is>
       </c>
+      <c r="BT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12372,6 +12700,12 @@
           <t>2-s2.0-84925291416</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12583,6 +12917,12 @@
           <t>2-s2.0-84924222142</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12798,6 +13138,12 @@
           <t>2-s2.0-84920709084</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13017,6 +13363,12 @@
           <t>2-s2.0-84947026738</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13246,6 +13598,12 @@
           <t>2-s2.0-84941889452</t>
         </is>
       </c>
+      <c r="BT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13463,6 +13821,12 @@
           <t>2-s2.0-84941933371</t>
         </is>
       </c>
+      <c r="BT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13679,6 +14043,12 @@
         <is>
           <t>2-s2.0-84941938632</t>
         </is>
+      </c>
+      <c r="BT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -13889,6 +14259,12 @@
           <t>2-s2.0-84941933501</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14110,6 +14486,12 @@
           <t>2-s2.0-84938289382</t>
         </is>
       </c>
+      <c r="BT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14338,6 +14720,12 @@
         <is>
           <t>2-s2.0-84938294219</t>
         </is>
+      </c>
+      <c r="BT64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -14548,6 +14936,12 @@
           <t>2-s2.0-84938292444</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14771,6 +15165,12 @@
           <t>2-s2.0-84925290237</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14986,6 +15386,12 @@
           <t>2-s2.0-85028141619</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15201,6 +15607,12 @@
           <t>2-s2.0-84925291024</t>
         </is>
       </c>
+      <c r="BT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15412,6 +15824,12 @@
           <t>2-s2.0-84924221399</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15635,6 +16053,12 @@
           <t>2-s2.0-84924222121</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15850,6 +16274,12 @@
           <t>2-s2.0-84922337744</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16061,6 +16491,12 @@
           <t>2-s2.0-84937129731</t>
         </is>
       </c>
+      <c r="BT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16284,6 +16720,12 @@
           <t>2-s2.0-84920708991</t>
         </is>
       </c>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16505,6 +16947,12 @@
           <t>2-s2.0-84958247689</t>
         </is>
       </c>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16720,6 +17168,12 @@
           <t>2-s2.0-84920708418</t>
         </is>
       </c>
+      <c r="BT75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16935,6 +17389,12 @@
           <t>2-s2.0-84947033639</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17154,6 +17614,12 @@
           <t>2-s2.0-84947021282</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17369,6 +17835,12 @@
           <t>2-s2.0-84947018249</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17584,6 +18056,12 @@
           <t>2-s2.0-84947019257</t>
         </is>
       </c>
+      <c r="BT79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17790,6 +18268,12 @@
         <is>
           <t>2-s2.0-84947017250</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -17998,6 +18482,12 @@
           <t>2-s2.0-84947036488</t>
         </is>
       </c>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18223,6 +18713,12 @@
           <t>2-s2.0-84941935192</t>
         </is>
       </c>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18440,6 +18936,12 @@
           <t>2-s2.0-84941934656</t>
         </is>
       </c>
+      <c r="BT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18657,6 +19159,12 @@
           <t>2-s2.0-84938293519</t>
         </is>
       </c>
+      <c r="BT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18869,6 +19377,12 @@
         <is>
           <t>2-s2.0-84938236574</t>
         </is>
+      </c>
+      <c r="BT85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -19075,6 +19589,12 @@
           <t>2-s2.0-84938290293</t>
         </is>
       </c>
+      <c r="BT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19288,6 +19808,12 @@
           <t>2-s2.0-84929843111</t>
         </is>
       </c>
+      <c r="BT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19504,6 +20030,12 @@
         <is>
           <t>2-s2.0-84929840151</t>
         </is>
+      </c>
+      <c r="BT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -19714,6 +20246,12 @@
           <t>2-s2.0-84930209874</t>
         </is>
       </c>
+      <c r="BT89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19929,6 +20467,12 @@
           <t>2-s2.0-84925289192</t>
         </is>
       </c>
+      <c r="BT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU90" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20152,6 +20696,12 @@
           <t>2-s2.0-84923811687</t>
         </is>
       </c>
+      <c r="BT91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20379,6 +20929,12 @@
           <t>2-s2.0-84924223356</t>
         </is>
       </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20594,6 +21150,12 @@
           <t>2-s2.0-84924223112</t>
         </is>
       </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20804,6 +21366,12 @@
         <is>
           <t>2-s2.0-84924223997</t>
         </is>
+      </c>
+      <c r="BT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU94" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -21012,6 +21580,12 @@
           <t>2-s2.0-84922109522</t>
         </is>
       </c>
+      <c r="BT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21215,6 +21789,12 @@
           <t>2-s2.0-84922338305</t>
         </is>
       </c>
+      <c r="BT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21430,6 +22010,12 @@
           <t>2-s2.0-84958252543</t>
         </is>
       </c>
+      <c r="BT97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21640,6 +22226,12 @@
         <is>
           <t>2-s2.0-84920711323</t>
         </is>
+      </c>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -21847,6 +22439,12 @@
         <is>
           <t>2-s2.0-84947046131</t>
         </is>
+      </c>
+      <c r="BT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -22047,6 +22645,12 @@
           <t>2-s2.0-84947039320</t>
         </is>
       </c>
+      <c r="BT100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22254,6 +22858,12 @@
           <t>2-s2.0-84947019245</t>
         </is>
       </c>
+      <c r="BT101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22457,6 +23067,12 @@
           <t>2-s2.0-84947035661</t>
         </is>
       </c>
+      <c r="BT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22660,6 +23276,12 @@
           <t>2-s2.0-84946409427</t>
         </is>
       </c>
+      <c r="BT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22876,6 +23498,12 @@
         <is>
           <t>2-s2.0-84941944377</t>
         </is>
+      </c>
+      <c r="BT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -23082,6 +23710,12 @@
           <t>2-s2.0-84941899681</t>
         </is>
       </c>
+      <c r="BT105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23291,6 +23925,12 @@
           <t>2-s2.0-84938286000</t>
         </is>
       </c>
+      <c r="BT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23504,6 +24144,12 @@
           <t>2-s2.0-84938287494</t>
         </is>
       </c>
+      <c r="BT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23717,6 +24363,12 @@
           <t>2-s2.0-84938287478</t>
         </is>
       </c>
+      <c r="BT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23942,6 +24594,12 @@
           <t>2-s2.0-84929840020</t>
         </is>
       </c>
+      <c r="BT109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24163,6 +24821,12 @@
           <t>2-s2.0-84930202534</t>
         </is>
       </c>
+      <c r="BT110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24383,6 +25047,12 @@
         <is>
           <t>2-s2.0-84929842095</t>
         </is>
+      </c>
+      <c r="BT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -24591,6 +25261,12 @@
           <t>2-s2.0-84925291036</t>
         </is>
       </c>
+      <c r="BT112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24805,6 +25481,12 @@
         <is>
           <t>2-s2.0-84924222219</t>
         </is>
+      </c>
+      <c r="BT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -25013,6 +25695,12 @@
           <t>2-s2.0-84924223130</t>
         </is>
       </c>
+      <c r="BT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25228,6 +25916,12 @@
           <t>2-s2.0-84922338366</t>
         </is>
       </c>
+      <c r="BT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25442,6 +26136,12 @@
         <is>
           <t>2-s2.0-84922181344</t>
         </is>
+      </c>
+      <c r="BT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -25642,6 +26342,12 @@
           <t>2-s2.0-84891706637</t>
         </is>
       </c>
+      <c r="BT117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU117" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
